--- a/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6_磐石组.xlsx
+++ b/VersionRecords/Version 5.0.4.6 20161103/版本Bug和特性计划及评审表v5.0.4.6_磐石组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +163,34 @@
   <si>
     <t>公司业务指标统计优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复退房时将业务测账单中退房日当期的租账单由线上支付变成了线下支付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡银军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1411,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,7 +1542,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="339">
@@ -2207,7 +2234,7 @@
   <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,13 +2326,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -2321,22 +2348,22 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="34">
         <v>42677</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -2348,20 +2375,46 @@
       <c r="A3" s="21">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13">
+        <v>42677</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42677</v>
+      </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34">
+        <v>42677</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
